--- a/nriss-patch-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-bundle</t>
+    <t>https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-bundle</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-03T14:18:24+00:00</t>
+    <t>2025-07-31T14:23:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -879,7 +879,7 @@
     <t>Bundle.entry:DUIDocumentReference.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/tddui-documentreference}
+    <t xml:space="preserve">DocumentReference {https://interop.esante.gouv.fr/ig/cda/tddui/StructureDefinition/tddui-documentreference}
 </t>
   </si>
   <si>
@@ -1316,7 +1316,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.53125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="88.75" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/nriss-patch-1/ig/StructureDefinition-tddui-bundle.xlsx
+++ b/nriss-patch-1/ig/StructureDefinition-tddui-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T14:23:22+00:00</t>
+    <t>2025-08-01T06:36:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
